--- a/Paperwork/Test Cases/Login-Signup Test Cases.xlsx
+++ b/Paperwork/Test Cases/Login-Signup Test Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tzd_files_7\smu\480\IS480 FYP test cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tzd_files_7\smu\480\ChickenDinner\Paperwork\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE1981A-22C6-44F9-B2D9-A70E875D38A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32679B9-6225-4CB8-9328-D519B8BD60E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{23967BA6-8136-4F99-9EC6-D99B1E1C95F9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{23967BA6-8136-4F99-9EC6-D99B1E1C95F9}"/>
   </bookViews>
   <sheets>
     <sheet name="13-12-2018" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="95">
   <si>
     <t>S/N</t>
   </si>
@@ -464,6 +464,29 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Unsuccessful signup. User is prompted to enter details. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pass.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> User details are stored.</t>
     </r>
   </si>
 </sst>
@@ -594,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -608,13 +631,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -623,21 +646,18 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -955,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEEC674-DD97-4A22-A8B9-579E2500900F}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1637,9 +1657,15 @@
       <c r="F24" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="G24" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="9">
+        <v>43447</v>
+      </c>
       <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" ht="105" customHeight="1" x14ac:dyDescent="0.3">
